--- a/doc.xlsx
+++ b/doc.xlsx
@@ -1,33 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdieg\OneDrive\Documentos\api-omie-main\api-omie-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\python\api-omie-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A53E121-9896-4293-B12D-8757AC9E43DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72172D77-6DFD-4D36-9E3B-D8564A5E852B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="15600" xr2:uid="{69EA36ED-1954-4A0E-ABD8-2909107073CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{69EA36ED-1954-4A0E-ABD8-2909107073CC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="segurança" sheetId="2" r:id="rId2"/>
-    <sheet name="temp" sheetId="3" r:id="rId3"/>
+    <sheet name="definições complexas" sheetId="1" r:id="rId1"/>
+    <sheet name="definições simples" sheetId="5" r:id="rId2"/>
+    <sheet name="segurança" sheetId="2" r:id="rId3"/>
+    <sheet name="temp" sheetId="3" r:id="rId4"/>
+    <sheet name="notes int" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="201">
   <si>
     <t>cadastro_prod</t>
   </si>
@@ -989,6 +1002,15 @@
     <t>Convert_Unidade</t>
   </si>
   <si>
+    <t>Retorna a unidade e fator de converção correto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">para visualizar e gravar no omie sem gerar </t>
+  </si>
+  <si>
+    <t>confrito.</t>
+  </si>
+  <si>
     <r>
       <t>tipomov</t>
     </r>
@@ -999,8 +1021,606 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>unidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>unidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fatoromie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fatorvisual</t>
+    </r>
+  </si>
+  <si>
+    <t>#@app.route('/cadastro_prod', methods = ['GET','POST'])</t>
+  </si>
+  <si>
+    <t>#===================definição de ajuste de estoque ====</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Def_id_produto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> id do produto</t>
+  </si>
+  <si>
+    <t>saldo do A1</t>
+  </si>
+  <si>
+    <t>unidade omie</t>
+  </si>
+  <si>
+    <t>valor unitario</t>
+  </si>
+  <si>
+    <t>descrição do produto</t>
+  </si>
+  <si>
+    <t>id para conexão no omie</t>
+  </si>
+  <si>
+    <t>tipo= produtivo e não produtivo</t>
+  </si>
+  <si>
+    <t>saldo fisico do A1</t>
+  </si>
+  <si>
+    <t>unidade interna do omie</t>
+  </si>
+  <si>
+    <t>valor unitario de custo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Def_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tipo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Def_saldoFisico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Def_unidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Def_valor_unitario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Def_descricao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <t>'/temp2'</t>
+  </si>
+  <si>
+    <t>item, local</t>
+  </si>
+  <si>
+    <t>CARACTERISTICAS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"cNomeCaract":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"peso_unitario"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>,</t>
     </r>
+  </si>
+  <si>
+    <t>"cNomeCaract": "Peso_Fino"</t>
+  </si>
+  <si>
+    <t>"nCodCaract":</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"cConteudo":</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cadastro_prod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"item"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)[6]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cadastro_prod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"item"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)[7]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cadastro_prod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"item"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)[8]</t>
+    </r>
+  </si>
+  <si>
+    <t>cliente</t>
+  </si>
+  <si>
+    <t>liga</t>
+  </si>
+  <si>
+    <r>
+      <t>cadastro_prod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"item"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)[9]</t>
+    </r>
+  </si>
+  <si>
+    <t>imagens</t>
+  </si>
+  <si>
+    <t>visual</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <r>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Def_item_ok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1008,7 +1628,268 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>quant</t>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"ok"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>flash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'OP para o item </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Aberta com sucesso'</t>
     </r>
     <r>
       <rPr>
@@ -1026,15 +1907,681 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>unidade</t>
-    </r>
+      <t>category</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'success'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>flash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">' Código: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - não cadastrado - ERRO=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>category</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'success'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"container w-100"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>                        {% with messages=get_flashed_messages(with_categories=true) %}</t>
+  </si>
+  <si>
+    <t>                        {%if messages%}</t>
+  </si>
+  <si>
+    <t>                        {%for category, message in messages%}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"alert alert-success"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>                            {{message}}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"button"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"btn-close float-end"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>data-bs-dismiss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"alert"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>aria-label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Close"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>                        {%endfor%}</t>
+  </si>
+  <si>
+    <t>                        {%endif%}</t>
+  </si>
+  <si>
+    <t>                        {%endwith%}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cadastro_prod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"item"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)[10]</t>
+    </r>
+  </si>
+  <si>
+    <t>2407629011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1128,8 +2675,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Shell Dlg 2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1148,8 +2731,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1209,15 +2804,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1255,6 +2905,65 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1263,17 +2972,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1589,15 +3287,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB53EDDB-72AE-45FC-8C6E-1A61A51215F9}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="64.5703125" bestFit="1" customWidth="1"/>
@@ -1605,347 +3303,332 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="20">
-        <v>2436985075</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10"/>
+      <c r="A11" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="20">
-        <v>2511785274</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10"/>
+      <c r="A12" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="20">
-        <v>4084861665</v>
-      </c>
-      <c r="D13" s="10">
-        <v>2</v>
-      </c>
-      <c r="E13" s="10"/>
+      <c r="A13" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="20">
-        <v>4085565942</v>
-      </c>
-      <c r="D14" s="10">
-        <v>3</v>
-      </c>
-      <c r="E14" s="10"/>
+      <c r="A14" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="20">
-        <v>4085566100</v>
-      </c>
-      <c r="D15" s="10">
-        <v>4</v>
-      </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="20">
-        <v>4085566245</v>
-      </c>
-      <c r="D16" s="10">
-        <v>5</v>
-      </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="20">
-        <v>2407629011</v>
-      </c>
-      <c r="D17" s="10">
-        <v>6</v>
-      </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="28"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="A19" s="12"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>43</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="18"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="18"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="18"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="18"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="19"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="12" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="D25" s="40"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="B27" s="12" t="s">
         <v>137</v>
       </c>
+      <c r="C27" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="D22:D25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1953,6 +3636,161 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2939A60-0F54-4363-8086-63A969D5C9D5}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E936A6A5-D7D3-4ABE-93A1-9ED2BD0DF470}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1966,7 +3804,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C1" t="s">
@@ -1974,7 +3812,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1983,400 +3821,1094 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E343E207-6FF8-4F49-9603-85CEC20CBFB3}">
-  <dimension ref="A1:AP43"/>
+  <dimension ref="A1:AP51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5">
+        <v>10000</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6">
+        <f>E5*(I5/J5)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="17"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="30">
+        <v>1</v>
+      </c>
+      <c r="B46" s="30">
+        <v>10005</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" s="30">
+        <v>2</v>
+      </c>
+      <c r="E46" s="30">
+        <v>2</v>
+      </c>
+      <c r="F46" s="30">
+        <v>1000</v>
+      </c>
+      <c r="G46" s="30">
+        <v>1</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I46" s="30">
+        <v>2436985075</v>
+      </c>
+      <c r="J46" s="31">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="30">
+        <v>2</v>
+      </c>
+      <c r="B47" s="30">
+        <v>10003</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="30">
+        <v>4</v>
+      </c>
+      <c r="E47" s="30">
+        <v>4</v>
+      </c>
+      <c r="F47" s="30">
+        <v>1000</v>
+      </c>
+      <c r="G47" s="30">
+        <v>1</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I47" s="30">
+        <v>2436985075</v>
+      </c>
+      <c r="J47" s="31">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="30">
+        <v>3</v>
+      </c>
+      <c r="B48" s="30">
+        <v>10007</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="30">
+        <v>1</v>
+      </c>
+      <c r="E48" s="30">
+        <v>1</v>
+      </c>
+      <c r="F48" s="30">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="30">
+        <v>1</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I48" s="30">
+        <v>2436985075</v>
+      </c>
+      <c r="J48" s="31">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="30">
+        <v>4</v>
+      </c>
+      <c r="B49" s="30">
+        <v>10022</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="30">
+        <v>1</v>
+      </c>
+      <c r="E49" s="30">
+        <v>1</v>
+      </c>
+      <c r="F49" s="30">
+        <v>1000</v>
+      </c>
+      <c r="G49" s="30">
+        <v>1</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I49" s="30">
+        <v>2436985075</v>
+      </c>
+      <c r="J49" s="31">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="30">
+        <v>5</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="30">
+        <v>6</v>
+      </c>
+      <c r="E50" s="30">
+        <v>6</v>
+      </c>
+      <c r="F50" s="30">
+        <v>5555</v>
+      </c>
+      <c r="G50" s="30">
+        <v>4444</v>
+      </c>
+      <c r="H50" s="32">
+        <v>104222222222222</v>
+      </c>
+      <c r="I50" s="30">
+        <v>4085566100</v>
+      </c>
+      <c r="J50" s="31">
+        <v>45298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="30">
+        <v>6</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="30">
+        <v>7</v>
+      </c>
+      <c r="E51" s="30">
+        <v>7</v>
+      </c>
+      <c r="F51" s="30">
+        <v>5555</v>
+      </c>
+      <c r="G51" s="30">
+        <v>4444</v>
+      </c>
+      <c r="H51" s="32">
+        <v>104222222222222</v>
+      </c>
+      <c r="I51" s="30">
+        <v>2436985075</v>
+      </c>
+      <c r="J51" s="31">
+        <v>45298</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5C7EC1-48CE-492C-8331-9F1239791196}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="109.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="16">
+        <v>2436985075</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="16">
+        <v>2436985075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="16">
+        <v>2511785274</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="16">
+        <v>2511785274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="16">
+        <v>4084861665</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="16">
+        <v>4085566100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="16">
+        <v>4085565942</v>
+      </c>
+      <c r="D8" s="9">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="16">
+        <v>4085565942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="16">
+        <v>4085566100</v>
+      </c>
+      <c r="D9" s="9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="16">
+        <v>4085566245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="16">
+        <v>4085566245</v>
+      </c>
+      <c r="D10" s="9">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="16">
+        <v>4084861665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="16">
+        <v>2407629011</v>
+      </c>
+      <c r="D11" s="9">
+        <v>6</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="26">
+        <v>3638913624</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="26">
+        <v>4086784228</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>